--- a/biology/Botanique/Typhaceae/Typhaceae.xlsx
+++ b/biology/Botanique/Typhaceae/Typhaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Typhaceae constituent une famille de plantes monocotylédones de l'ordre des Typhales (ou, selon la classification phylogénétique APG II,I des Poales). Même si elles ressemblent, ces plantes ne sont pas directement apparentées aux roseaux (Phragmites australis). 
-La classification phylogénétique APG III (2009)[1], qui a évité toute option, place systématiquement le genre Sparganium, rendant la famille Sparganiaceae invalide.
+La classification phylogénétique APG III (2009), qui a évité toute option, place systématiquement le genre Sparganium, rendant la famille Sparganiaceae invalide.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Typha qui vient du grec τυφά / tyfá, nom utilisé par Théophraste pour cette plante[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Typha qui vient du grec τυφά / tyfá, nom utilisé par Théophraste pour cette plante. 
 </t>
         </is>
       </c>
@@ -543,19 +557,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[1] inclut dans cette famille les genres précédemment placés dans la famille Sparganiaceae. Le genre Sparganium pour être précis.
-Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010)[3] et Angiosperm Phylogeny Website                        (21 mai 2010)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Sparganiaceae. Le genre Sparganium pour être précis.
+Selon World Checklist of Selected Plant Families (WCSP)  (22 avr. 2010) et Angiosperm Phylogeny Website                        (21 mai 2010) :
 genre Sparganium  L. (1753) (anciennement dans Sparganiaceae)
 genre Typha  L. (1753)
-Selon NCBI  (22 avr. 2010)[5] :
+Selon NCBI  (22 avr. 2010) :
 genre Rohrbachia
 genre Sparganium (anciennement dans Sparganiaceae)
 genre Typha
-Selon ITIS      (22 avr. 2010)[6] :
+Selon ITIS      (22 avr. 2010) :
 genre Typha  L.
-Selon DELTA Angio           (22 avr. 2010)[7] :
+Selon DELTA Angio           (22 avr. 2010) :
 genre Typha</t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
